--- a/70_Software/ObjectIDs.xlsx
+++ b/70_Software/ObjectIDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Documents\GitHub\GEM\70_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6694223A-F304-48A8-B63A-2218982503D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AC3E9E-4F6B-46C4-8568-FB943D320E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1088275C-BE49-4C7F-A7AD-C5EC312F93B6}"/>
   </bookViews>
@@ -41,18 +41,12 @@
     <t>HandPict</t>
   </si>
   <si>
-    <t>VisuPict</t>
-  </si>
-  <si>
     <t>AutoPict</t>
   </si>
   <si>
     <t>ChangeHand</t>
   </si>
   <si>
-    <t>ChangeVisu</t>
-  </si>
-  <si>
     <t>ChangeAuto</t>
   </si>
   <si>
@@ -120,6 +114,12 @@
   </si>
   <si>
     <t>Speed</t>
+  </si>
+  <si>
+    <t>BeveragePict</t>
+  </si>
+  <si>
+    <t>ChangeBeverage</t>
   </si>
 </sst>
 </file>
@@ -237,15 +237,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -253,6 +244,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -570,7 +570,7 @@
   <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C15"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,312 +583,312 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="C9" s="7">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7">
         <v>8</v>
       </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="7">
         <v>8</v>
       </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="10">
-        <v>2</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10">
-        <v>2</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="10">
-        <v>3</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="10">
-        <v>4</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C10" s="7">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10">
-        <v>7</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="E12" s="7">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="C13" s="7">
         <v>19</v>
       </c>
-      <c r="E9" s="10">
-        <v>8</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10">
-        <v>24</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="10">
-        <v>9</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7">
+        <v>16</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="10">
-        <v>14</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="10">
-        <v>18</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C15" s="3">
         <v>22</v>
       </c>
-      <c r="E12" s="10">
-        <v>15</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="10">
-        <v>19</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="10">
-        <v>16</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="10">
-        <v>21</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6">
-        <v>22</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="6"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/70_Software/ObjectIDs.xlsx
+++ b/70_Software/ObjectIDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Documents\GitHub\GEM\70_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AC3E9E-4F6B-46C4-8568-FB943D320E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96983CDF-9456-435D-B615-7A731F6B4342}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1088275C-BE49-4C7F-A7AD-C5EC312F93B6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -38,12 +38,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>HandPict</t>
-  </si>
-  <si>
-    <t>AutoPict</t>
-  </si>
-  <si>
     <t>ChangeHand</t>
   </si>
   <si>
@@ -53,9 +47,6 @@
     <t>ChangeStart</t>
   </si>
   <si>
-    <t>StartPict</t>
-  </si>
-  <si>
     <t>Mode</t>
   </si>
   <si>
@@ -86,18 +77,12 @@
     <t>Motor1Down</t>
   </si>
   <si>
-    <t>PosMotor1</t>
-  </si>
-  <si>
     <t>Motor2Up</t>
   </si>
   <si>
     <t>Motor2Down</t>
   </si>
   <si>
-    <t>PosMotor2</t>
-  </si>
-  <si>
     <t>AutStart</t>
   </si>
   <si>
@@ -116,10 +101,31 @@
     <t>Speed</t>
   </si>
   <si>
-    <t>BeveragePict</t>
-  </si>
-  <si>
     <t>ChangeBeverage</t>
+  </si>
+  <si>
+    <t>Quit</t>
+  </si>
+  <si>
+    <t>NotAus</t>
+  </si>
+  <si>
+    <t>StartPict (0)</t>
+  </si>
+  <si>
+    <t>HandPict (1)</t>
+  </si>
+  <si>
+    <t>BeveragePict (2)</t>
+  </si>
+  <si>
+    <t>AutoPict (3)</t>
+  </si>
+  <si>
+    <t>ModeUp</t>
+  </si>
+  <si>
+    <t>ModeDown</t>
   </si>
 </sst>
 </file>
@@ -567,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFB3FB2-E6C0-422A-95F6-51AE790D3D7A}">
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D12" sqref="D12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,11 +590,11 @@
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="8" t="s">
@@ -596,7 +602,7 @@
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="10" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -628,25 +634,25 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="5">
         <v>1</v>
@@ -654,25 +660,25 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
         <v>2</v>
@@ -680,25 +686,25 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7">
         <v>3</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7">
         <v>3</v>
@@ -706,25 +712,25 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7">
         <v>4</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="7">
         <v>4</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
         <v>4</v>
@@ -732,13 +738,13 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7">
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" s="7">
         <v>7</v>
@@ -746,7 +752,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7">
         <v>7</v>
@@ -754,13 +760,13 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7">
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="7">
         <v>8</v>
@@ -768,7 +774,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7">
         <v>8</v>
@@ -776,21 +782,21 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="7">
         <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
         <v>11</v>
@@ -798,21 +804,21 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" s="7">
         <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
         <v>15</v>
@@ -820,13 +826,13 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="7">
         <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12" s="7">
         <v>15</v>
@@ -834,7 +840,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I12" s="7">
         <v>16</v>
@@ -842,13 +848,13 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13" s="7">
         <v>16</v>
@@ -856,7 +862,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
         <v>17</v>
@@ -864,31 +870,99 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="H14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7">
         <v>22</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="3"/>
+      <c r="F15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="7">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7">
+        <v>23</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="7">
+        <v>24</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="7">
+        <v>13</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/70_Software/ObjectIDs.xlsx
+++ b/70_Software/ObjectIDs.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Documents\GitHub\GEM\70_Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b7schal\Documents\GitHub\GEM\70_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96983CDF-9456-435D-B615-7A731F6B4342}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1088275C-BE49-4C7F-A7AD-C5EC312F93B6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -126,12 +125,45 @@
   </si>
   <si>
     <t>ModeDown</t>
+  </si>
+  <si>
+    <t>Sparkling</t>
+  </si>
+  <si>
+    <t>Barn</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>Rivella</t>
+  </si>
+  <si>
+    <t>Ice Tea</t>
+  </si>
+  <si>
+    <t>Osaft</t>
+  </si>
+  <si>
+    <t>Calanda</t>
+  </si>
+  <si>
+    <t>StillWater</t>
+  </si>
+  <si>
+    <t>SpWater</t>
+  </si>
+  <si>
+    <t>SoftDrink</t>
+  </si>
+  <si>
+    <t>Beer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -259,6 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -572,11 +605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFB3FB2-E6C0-422A-95F6-51AE790D3D7A}">
-  <dimension ref="B1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,8 +782,12 @@
       <c r="E8" s="7">
         <v>7</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7">
+        <v>8</v>
+      </c>
       <c r="H8" s="6" t="s">
         <v>17</v>
       </c>
@@ -771,8 +808,12 @@
       <c r="E9" s="7">
         <v>8</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7">
+        <v>11</v>
+      </c>
       <c r="H9" s="6" t="s">
         <v>18</v>
       </c>
@@ -785,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>15</v>
@@ -793,8 +834,12 @@
       <c r="E10" s="7">
         <v>11</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7">
+        <v>14</v>
+      </c>
       <c r="H10" s="6" t="s">
         <v>19</v>
       </c>
@@ -815,8 +860,12 @@
       <c r="E11" s="7">
         <v>12</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="7">
+        <v>15</v>
+      </c>
       <c r="H11" s="6" t="s">
         <v>20</v>
       </c>
@@ -837,8 +886,12 @@
       <c r="E12" s="7">
         <v>15</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7">
+        <v>16</v>
+      </c>
       <c r="H12" s="6" t="s">
         <v>21</v>
       </c>
@@ -859,8 +912,12 @@
       <c r="E13" s="7">
         <v>16</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7">
+        <v>17</v>
+      </c>
       <c r="H13" s="6" t="s">
         <v>22</v>
       </c>
@@ -875,8 +932,12 @@
       <c r="C14" s="7">
         <v>21</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="7">
+        <v>18</v>
+      </c>
       <c r="H14" s="6" t="s">
         <v>24</v>
       </c>
@@ -892,10 +953,10 @@
         <v>22</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="7">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="G15" s="11">
+        <v>19</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>25</v>
@@ -913,8 +974,12 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7">
+        <v>20</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
     </row>
@@ -927,8 +992,12 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="7">
+        <v>21</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
     </row>
@@ -942,27 +1011,95 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>27</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="3"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="7">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="7">
+        <v>13</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -972,5 +1109,6 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/70_Software/ObjectIDs.xlsx
+++ b/70_Software/ObjectIDs.xlsx
@@ -273,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -282,6 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -291,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -606,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I25"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,22 +623,22 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -932,6 +933,8 @@
       <c r="C14" s="7">
         <v>21</v>
       </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="6" t="s">
         <v>38</v>
       </c>
@@ -952,10 +955,12 @@
       <c r="C15" s="7">
         <v>22</v>
       </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="8">
         <v>19</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -1037,69 +1042,19 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6" t="s">
+    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <v>13</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="3"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/70_Software/ObjectIDs.xlsx
+++ b/70_Software/ObjectIDs.xlsx
@@ -283,6 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,7 +293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -610,7 +610,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,22 +623,22 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -933,8 +933,8 @@
       <c r="C14" s="7">
         <v>21</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="6" t="s">
         <v>38</v>
       </c>
@@ -952,11 +952,9 @@
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
-        <v>22</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="6" t="s">
         <v>39</v>
       </c>
@@ -975,7 +973,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -993,7 +991,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -1011,7 +1009,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -1029,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
